--- a/data/trans_orig/P43E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43E-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D9CC0C5-C644-47C5-B7F2-CE8064144F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C62460D1-D257-4D9F-882B-AEAF28A2B619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5F48C7A7-846C-4FFB-8684-272F18EC9600}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD3F4F04-A68D-41AD-AD35-55DBF659B6EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -79,10 +79,10 @@
     <t>12,64%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,10 +91,10 @@
     <t>87,36%</t>
   </si>
   <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>23,22%</t>
   </si>
   <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
   </si>
   <si>
     <t>76,78%</t>
   </si>
   <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -127,25 +127,25 @@
     <t>42,93%</t>
   </si>
   <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
   </si>
   <si>
     <t>57,07%</t>
   </si>
   <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
   </si>
   <si>
     <t>22,99%</t>
   </si>
   <si>
-    <t>21,17%</t>
+    <t>21,13%</t>
   </si>
   <si>
     <t>24,83%</t>
@@ -157,7 +157,7 @@
     <t>75,17%</t>
   </si>
   <si>
-    <t>78,83%</t>
+    <t>78,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -169,73 +169,73 @@
     <t>5,01%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
   <si>
     <t>94,99%</t>
   </si>
   <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>14,02%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
   </si>
   <si>
     <t>85,98%</t>
   </si>
   <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
   </si>
   <si>
     <t>36,02%</t>
   </si>
   <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
   </si>
   <si>
     <t>63,98%</t>
   </si>
   <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
   </si>
   <si>
     <t>16,26%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
   </si>
   <si>
     <t>83,74%</t>
   </si>
   <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2023 (Tasa respuesta: 27,66%)</t>
@@ -244,73 +244,73 @@
     <t>6,19%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
   </si>
   <si>
     <t>93,81%</t>
   </si>
   <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>20,36%</t>
   </si>
   <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
   </si>
   <si>
     <t>79,64%</t>
   </si>
   <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
   </si>
   <si>
     <t>48,12%</t>
   </si>
   <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
   </si>
   <si>
     <t>51,88%</t>
   </si>
   <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
   </si>
   <si>
     <t>24,0%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
   </si>
   <si>
     <t>76,0%</t>
   </si>
   <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
   </si>
 </sst>
 </file>
@@ -722,7 +722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D974D950-DD7C-419B-A905-A9C9FD85AFAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF80794-F109-4D23-9D05-01CF61D4CBD3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1449,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56704A23-6771-4C6C-87FB-7EBD72768247}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C257B03D-C710-4297-8C2A-91861851229E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2176,7 +2176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6E3DCB-90F4-4CDF-BF2F-665EC05FC272}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7D2AAC-B89F-4E8E-82A1-53DCD9E9CEAE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P43E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43E-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C62460D1-D257-4D9F-882B-AEAF28A2B619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E5E04F-602E-41CE-A787-B7C624C351F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD3F4F04-A68D-41AD-AD35-55DBF659B6EE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F80CD8B8-9FF2-45FD-B566-F687AFF0E98C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -79,10 +79,10 @@
     <t>12,64%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,10 +91,10 @@
     <t>87,36%</t>
   </si>
   <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>23,22%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
   </si>
   <si>
     <t>76,78%</t>
   </si>
   <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -127,19 +127,19 @@
     <t>42,93%</t>
   </si>
   <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
   </si>
   <si>
     <t>57,07%</t>
   </si>
   <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
   </si>
   <si>
     <t>22,99%</t>
@@ -148,13 +148,13 @@
     <t>21,13%</t>
   </si>
   <si>
-    <t>24,83%</t>
+    <t>24,85%</t>
   </si>
   <si>
     <t>77,01%</t>
   </si>
   <si>
-    <t>75,17%</t>
+    <t>75,15%</t>
   </si>
   <si>
     <t>78,87%</t>
@@ -163,79 +163,79 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el lugar donde le realizaron dicha citología vaginal en 2015 (Tasa respuesta: 31,05%)</t>
+    <t>Población según el lugar donde le realizaron dicha citología vaginal en 2016 (Tasa respuesta: 31,05%)</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
   </si>
   <si>
     <t>94,99%</t>
   </si>
   <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
   </si>
   <si>
     <t>14,02%</t>
   </si>
   <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
   </si>
   <si>
     <t>85,98%</t>
   </si>
   <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
   </si>
   <si>
     <t>36,02%</t>
   </si>
   <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
   </si>
   <si>
     <t>63,98%</t>
   </si>
   <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
   </si>
   <si>
     <t>16,26%</t>
   </si>
   <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
   </si>
   <si>
     <t>83,74%</t>
   </si>
   <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2023 (Tasa respuesta: 27,66%)</t>
@@ -722,7 +722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF80794-F109-4D23-9D05-01CF61D4CBD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA150FD4-587E-45A4-ACAF-FD1643C9CFC8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1449,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C257B03D-C710-4297-8C2A-91861851229E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07988982-6843-47C8-AC76-FB0035502DED}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2176,7 +2176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7D2AAC-B89F-4E8E-82A1-53DCD9E9CEAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204F82B4-36EA-40F7-BE64-D14A410527CC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P43E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43E-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E5E04F-602E-41CE-A787-B7C624C351F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F17BAE8-CFE7-4669-BF46-7F856DBCB9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F80CD8B8-9FF2-45FD-B566-F687AFF0E98C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C23382B4-0902-4819-95C1-C170A8416F38}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -79,10 +79,10 @@
     <t>12,64%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,10 +91,10 @@
     <t>87,36%</t>
   </si>
   <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,7 +106,7 @@
     <t>23,22%</t>
   </si>
   <si>
-    <t>20,69%</t>
+    <t>20,79%</t>
   </si>
   <si>
     <t>25,81%</t>
@@ -118,7 +118,7 @@
     <t>74,19%</t>
   </si>
   <si>
-    <t>79,31%</t>
+    <t>79,21%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -127,37 +127,37 @@
     <t>42,93%</t>
   </si>
   <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
   </si>
   <si>
     <t>57,07%</t>
   </si>
   <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
   </si>
   <si>
     <t>22,99%</t>
   </si>
   <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
   </si>
   <si>
     <t>77,01%</t>
   </si>
   <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -169,73 +169,73 @@
     <t>5,01%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>94,99%</t>
   </si>
   <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>14,02%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
   </si>
   <si>
     <t>85,98%</t>
   </si>
   <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>36,02%</t>
   </si>
   <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
   </si>
   <si>
     <t>63,98%</t>
   </si>
   <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
   </si>
   <si>
     <t>16,26%</t>
   </si>
   <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
   </si>
   <si>
     <t>83,74%</t>
   </si>
   <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2023 (Tasa respuesta: 27,66%)</t>
@@ -244,73 +244,73 @@
     <t>6,19%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
   </si>
   <si>
     <t>93,81%</t>
   </si>
   <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
   </si>
   <si>
     <t>20,36%</t>
   </si>
   <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
   </si>
   <si>
     <t>79,64%</t>
   </si>
   <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
   </si>
   <si>
     <t>48,12%</t>
   </si>
   <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
   </si>
   <si>
     <t>51,88%</t>
   </si>
   <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
   </si>
   <si>
     <t>24,0%</t>
   </si>
   <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
   </si>
   <si>
     <t>76,0%</t>
   </si>
   <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
   </si>
 </sst>
 </file>
@@ -722,7 +722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA150FD4-587E-45A4-ACAF-FD1643C9CFC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56A0EB0-1F2D-4A8A-9638-C874BC187088}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1449,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07988982-6843-47C8-AC76-FB0035502DED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A131916F-3C39-49A6-A988-A51A5B560141}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2176,7 +2176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204F82B4-36EA-40F7-BE64-D14A410527CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD564637-AD54-49BC-AA54-22338222A659}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P43E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43E-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F17BAE8-CFE7-4669-BF46-7F856DBCB9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D46933CF-53AB-4DA5-82D8-9B4B206555DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C23382B4-0902-4819-95C1-C170A8416F38}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F50EBA41-6AAE-4F05-92F4-3521D619C443}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -241,76 +241,76 @@
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2023 (Tasa respuesta: 27,66%)</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
   </si>
 </sst>
 </file>
@@ -722,7 +722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56A0EB0-1F2D-4A8A-9638-C874BC187088}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B92955-0124-4949-BF8E-DAF82D843A7E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1054,7 +1054,7 @@
         <v>862</v>
       </c>
       <c r="I8" s="7">
-        <v>931489</v>
+        <v>931488</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>24</v>
@@ -1069,7 +1069,7 @@
         <v>862</v>
       </c>
       <c r="N8" s="7">
-        <v>931489</v>
+        <v>931488</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>24</v>
@@ -1103,7 +1103,7 @@
         <v>1115</v>
       </c>
       <c r="I9" s="7">
-        <v>1213222</v>
+        <v>1213221</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1118,7 +1118,7 @@
         <v>1115</v>
       </c>
       <c r="N9" s="7">
-        <v>1213222</v>
+        <v>1213221</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1449,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A131916F-3C39-49A6-A988-A51A5B560141}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08024BC1-29E6-48BD-8A42-747090E2A16B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2079,7 +2079,7 @@
         <v>1706</v>
       </c>
       <c r="I14" s="7">
-        <v>1795680</v>
+        <v>1795679</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>63</v>
@@ -2094,7 +2094,7 @@
         <v>1706</v>
       </c>
       <c r="N14" s="7">
-        <v>1795680</v>
+        <v>1795679</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>63</v>
@@ -2128,7 +2128,7 @@
         <v>2031</v>
       </c>
       <c r="I15" s="7">
-        <v>2144298</v>
+        <v>2144297</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2143,7 +2143,7 @@
         <v>2031</v>
       </c>
       <c r="N15" s="7">
-        <v>2144298</v>
+        <v>2144297</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2176,7 +2176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD564637-AD54-49BC-AA54-22338222A659}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCA926E-CC87-4385-82B1-C89C596139A3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="I4" s="7">
-        <v>19546</v>
+        <v>17816</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>67</v>
@@ -2325,7 +2325,7 @@
         <v>33</v>
       </c>
       <c r="N4" s="7">
-        <v>19546</v>
+        <v>17816</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>67</v>
@@ -2359,7 +2359,7 @@
         <v>499</v>
       </c>
       <c r="I5" s="7">
-        <v>296166</v>
+        <v>267930</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>70</v>
@@ -2374,7 +2374,7 @@
         <v>499</v>
       </c>
       <c r="N5" s="7">
-        <v>296166</v>
+        <v>267930</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>70</v>
@@ -2408,7 +2408,7 @@
         <v>532</v>
       </c>
       <c r="I6" s="7">
-        <v>315712</v>
+        <v>285746</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2423,7 +2423,7 @@
         <v>532</v>
       </c>
       <c r="N6" s="7">
-        <v>315712</v>
+        <v>285746</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2459,7 +2459,7 @@
         <v>271</v>
       </c>
       <c r="I7" s="7">
-        <v>187503</v>
+        <v>175091</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>73</v>
@@ -2474,7 +2474,7 @@
         <v>271</v>
       </c>
       <c r="N7" s="7">
-        <v>187503</v>
+        <v>175091</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>73</v>
@@ -2508,7 +2508,7 @@
         <v>1065</v>
       </c>
       <c r="I8" s="7">
-        <v>733617</v>
+        <v>759796</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>76</v>
@@ -2523,7 +2523,7 @@
         <v>1065</v>
       </c>
       <c r="N8" s="7">
-        <v>733617</v>
+        <v>759796</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>76</v>
@@ -2557,7 +2557,7 @@
         <v>1336</v>
       </c>
       <c r="I9" s="7">
-        <v>921120</v>
+        <v>934887</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2572,7 +2572,7 @@
         <v>1336</v>
       </c>
       <c r="N9" s="7">
-        <v>921120</v>
+        <v>934887</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2608,7 +2608,7 @@
         <v>254</v>
       </c>
       <c r="I10" s="7">
-        <v>179088</v>
+        <v>165765</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>79</v>
@@ -2623,7 +2623,7 @@
         <v>254</v>
       </c>
       <c r="N10" s="7">
-        <v>179088</v>
+        <v>165765</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>79</v>
@@ -2657,7 +2657,7 @@
         <v>289</v>
       </c>
       <c r="I11" s="7">
-        <v>193046</v>
+        <v>180917</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>82</v>
@@ -2672,7 +2672,7 @@
         <v>289</v>
       </c>
       <c r="N11" s="7">
-        <v>193046</v>
+        <v>180917</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>82</v>
@@ -2706,7 +2706,7 @@
         <v>543</v>
       </c>
       <c r="I12" s="7">
-        <v>372134</v>
+        <v>346682</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2721,7 +2721,7 @@
         <v>543</v>
       </c>
       <c r="N12" s="7">
-        <v>372134</v>
+        <v>346682</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2757,7 +2757,7 @@
         <v>558</v>
       </c>
       <c r="I13" s="7">
-        <v>386137</v>
+        <v>358672</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>85</v>
@@ -2772,7 +2772,7 @@
         <v>558</v>
       </c>
       <c r="N13" s="7">
-        <v>386137</v>
+        <v>358672</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -2806,7 +2806,7 @@
         <v>1853</v>
       </c>
       <c r="I14" s="7">
-        <v>1222830</v>
+        <v>1208643</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>88</v>
@@ -2821,7 +2821,7 @@
         <v>1853</v>
       </c>
       <c r="N14" s="7">
-        <v>1222830</v>
+        <v>1208643</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>88</v>
@@ -2855,7 +2855,7 @@
         <v>2411</v>
       </c>
       <c r="I15" s="7">
-        <v>1608967</v>
+        <v>1567315</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2870,7 +2870,7 @@
         <v>2411</v>
       </c>
       <c r="N15" s="7">
-        <v>1608967</v>
+        <v>1567315</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
